--- a/src/main/resources/excel/website-terminal-code-exceldown.xlsx
+++ b/src/main/resources/excel/website-terminal-code-exceldown.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace_kc_logix\kc.logix\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmm11199317\git\kclogix\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8728E6F9-EC7F-460F-A436-6DCB906FFD0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291B8E26-F758-49DE-90E0-E86A5EF1BAFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>F/T</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>POD</t>
+  </si>
+  <si>
+    <t>SHIPMENT STATUS</t>
+  </si>
+  <si>
+    <t>PROFIT DATE</t>
   </si>
 </sst>
 </file>
@@ -510,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -522,25 +528,27 @@
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
-    <col min="7" max="7" width="26.375" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" customWidth="1"/>
-    <col min="12" max="13" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="14.5" customWidth="1"/>
-    <col min="18" max="18" width="23" customWidth="1"/>
-    <col min="19" max="19" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="9" max="9" width="26.375" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" customWidth="1"/>
+    <col min="14" max="15" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="19" max="19" width="14.5" customWidth="1"/>
+    <col min="20" max="20" width="23" customWidth="1"/>
+    <col min="21" max="21" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -554,70 +562,76 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="6"/>
+      <c r="Y1" s="6"/>
     </row>
-    <row r="2" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -627,11 +641,13 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/resources/excel/website-terminal-code-exceldown.xlsx
+++ b/src/main/resources/excel/website-terminal-code-exceldown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmm11199317\git\kclogix\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291B8E26-F758-49DE-90E0-E86A5EF1BAFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B8FBA0-E764-4BBB-B168-F774FF9B8806}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,31 +519,31 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.625" customWidth="1"/>
-    <col min="9" max="9" width="26.375" customWidth="1"/>
-    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="22.125" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="8" max="8" width="30.625" customWidth="1"/>
+    <col min="9" max="9" width="34.875" customWidth="1"/>
+    <col min="10" max="10" width="19.25" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
     <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5" customWidth="1"/>
     <col min="14" max="15" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.375" customWidth="1"/>
+    <col min="17" max="17" width="13.625" customWidth="1"/>
     <col min="18" max="18" width="15" customWidth="1"/>
     <col min="19" max="19" width="14.5" customWidth="1"/>
     <col min="20" max="20" width="23" customWidth="1"/>
-    <col min="21" max="21" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5" customWidth="1"/>
     <col min="22" max="23" width="14.125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -562,13 +562,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
